--- a/pandas/assets/output.xlsx
+++ b/pandas/assets/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="csv_to_excel" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
